--- a/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,82</t>
+          <t>0,33; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,72</t>
+          <t>0,4; 3,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,23</t>
+          <t>0,67; 3,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,47</t>
+          <t>0,88; 3,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,72</t>
+          <t>0,51; 2,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,72</t>
+          <t>0,64; 2,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,46</t>
+          <t>0,72; 2,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,15</t>
+          <t>1,2; 4,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,29</t>
+          <t>0,6; 3,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,57</t>
+          <t>3,3; 7,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,13</t>
+          <t>0,78; 3,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,34</t>
+          <t>0,98; 3,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,89</t>
+          <t>4,6; 8,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,05</t>
+          <t>1,19; 3,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,82</t>
+          <t>1,01; 2,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,99</t>
+          <t>0,11; 1,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,28</t>
+          <t>4,44; 7,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,54</t>
+          <t>0,62; 4,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,4</t>
+          <t>1,18; 4,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,76</t>
+          <t>0,29; 2,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,62</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,6</t>
+          <t>0,69; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,08</t>
+          <t>0,75; 2,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,52</t>
+          <t>0,14; 1,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,89</t>
+          <t>1,14; 3,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,67</t>
+          <t>1,17; 4,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,52</t>
+          <t>1,16; 3,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,86</t>
+          <t>0,24; 2,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,92</t>
+          <t>0,97; 5,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,46</t>
+          <t>0,25; 2,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,26</t>
+          <t>2,09; 5,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,83</t>
+          <t>1,06; 4,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,45</t>
+          <t>1,02; 5,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,86</t>
+          <t>0,92; 2,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,89</t>
+          <t>1,92; 3,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,03</t>
+          <t>0,81; 2,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,07</t>
+          <t>1,19; 4,25</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,94</t>
+          <t>1,29; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,75</t>
+          <t>3,8; 11,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,95</t>
+          <t>2,6; 9,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,45</t>
+          <t>2,78; 9,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,84</t>
+          <t>1,18; 3,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,34</t>
+          <t>2,39; 6,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,81</t>
+          <t>4,37; 9,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,64</t>
+          <t>0,86; 2,51</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,68</t>
+          <t>1,11; 5,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,05</t>
+          <t>1,39; 4,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,95</t>
+          <t>0,33; 2,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,43</t>
+          <t>0,37; 3,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,61</t>
+          <t>2,53; 6,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,88</t>
+          <t>0,19; 1,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,4</t>
+          <t>0,92; 3,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,11</t>
+          <t>2,33; 4,93</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,04</t>
+          <t>0,86; 3,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,24</t>
+          <t>0,48; 2,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,85</t>
+          <t>0,64; 2,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,41</t>
+          <t>2,23; 5,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,02</t>
+          <t>0,92; 3,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,43</t>
+          <t>1,04; 3,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,48</t>
+          <t>0,61; 2,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 51,35</t>
+          <t>4,95; 49,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,69</t>
+          <t>1,07; 2,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,28</t>
+          <t>0,9; 2,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,12</t>
+          <t>0,78; 2,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 34,9</t>
+          <t>4,25; 33,22</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,06</t>
+          <t>0,52; 2,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,87</t>
+          <t>0,4; 1,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,02</t>
+          <t>0,35; 2,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,38</t>
+          <t>0,17; 1,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,15</t>
+          <t>1,07; 3,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,47</t>
+          <t>0,76; 2,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,7</t>
+          <t>0,3; 1,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,5</t>
+          <t>0,38; 1,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,23</t>
+          <t>0,93; 2,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,82</t>
+          <t>0,67; 1,82</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,47</t>
+          <t>0,45; 1,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,15</t>
+          <t>0,39; 1,18</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,0</t>
+          <t>1,15; 2,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,18</t>
+          <t>1,25; 2,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,45</t>
+          <t>0,67; 1,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,02</t>
+          <t>1,92; 3,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,08</t>
+          <t>1,23; 2,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,74</t>
+          <t>1,72; 2,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,52</t>
+          <t>0,74; 1,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 15,67</t>
+          <t>2,95; 15,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,9</t>
+          <t>1,29; 1,9</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,31</t>
+          <t>1,6; 2,33</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,32</t>
+          <t>0,78; 1,31</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,1</t>
+          <t>2,67; 9,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 6,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,74</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 6,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,38</t>
+          <t>0,86; 3,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,12; 5,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,57</t>
+          <t>0,68; 2,49</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,61</t>
+          <t>3,13; 7,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,05</t>
+          <t>4,25; 7,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,21</t>
+          <t>4,18; 6,75</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,39</t>
+          <t>1,15; 4,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,54</t>
+          <t>0,69; 2,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,0</t>
+          <t>1,13; 2,99</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,6</t>
+          <t>0,29; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,47</t>
+          <t>0,93; 5,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,65</t>
+          <t>0,49; 2,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,18</t>
+          <t>1,52; 5,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,19</t>
+          <t>0,65; 3,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,96</t>
+          <t>1,03; 3,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,84</t>
+          <t>1,13; 3,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,25</t>
+          <t>0,95; 3,49</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,79</t>
+          <t>0,88; 3,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,51</t>
+          <t>0,75; 2,41</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,74</t>
+          <t>1,35; 4,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,36</t>
+          <t>2,48; 6,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,93</t>
+          <t>2,29; 4,84</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>17,78%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,4</t>
+          <t>2,18; 5,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 49,14</t>
+          <t>4,89; 65,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 33,22</t>
+          <t>4,18; 47,69</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1719,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,4</t>
+          <t>0,08; 0,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,17</t>
+          <t>1,18; 3,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,59</t>
+          <t>0,31; 1,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,25</t>
+          <t>1,0; 2,4</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,18</t>
+          <t>0,23; 0,87</t>
         </is>
       </c>
     </row>
@@ -1791,34 +1791,34 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>1,6%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>1,94%</t>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,02</t>
+          <t>1,64; 2,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,11</t>
+          <t>1,27; 2,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,95; 15,65</t>
+          <t>2,76; 24,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,9</t>
+          <t>1,32; 1,92</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,66</t>
+          <t>2,43; 14,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,65</t>
+          <t>0,33; 3,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,42</t>
+          <t>1,59; 6,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,4</t>
+          <t>0,4; 3,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,61</t>
+          <t>1,72; 6,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,96</t>
+          <t>0,72; 4,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,24</t>
+          <t>0,81; 3,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,96</t>
+          <t>0,52; 2,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,51</t>
+          <t>2,2; 5,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,62</t>
+          <t>0,55; 2,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,49</t>
+          <t>0,66; 2,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,01</t>
+          <t>1,22; 4,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,21</t>
+          <t>0,6; 3,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,19</t>
+          <t>3,29; 7,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,1</t>
+          <t>0,81; 3,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,51</t>
+          <t>0,96; 3,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,54</t>
+          <t>4,23; 7,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,14</t>
+          <t>1,21; 3,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,68</t>
+          <t>1,01; 2,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,01</t>
+          <t>0,1; 0,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,75</t>
+          <t>4,17; 6,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,78</t>
+          <t>0,63; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,35</t>
+          <t>1,11; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,85</t>
+          <t>0,29; 2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,53</t>
+          <t>0,65; 2,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,9</t>
+          <t>0,74; 2,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,46</t>
+          <t>0,14; 1,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,99</t>
+          <t>1,09; 2,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,58</t>
+          <t>1,24; 4,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,45</t>
+          <t>0,29; 2,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,91</t>
+          <t>0,24; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,17</t>
+          <t>0,92; 5,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,87</t>
+          <t>0,5; 2,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,43</t>
+          <t>1,73; 5,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,93</t>
+          <t>0,87; 4,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,84</t>
+          <t>0,67; 3,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,1</t>
+          <t>0,99; 2,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,39</t>
+          <t>1,2; 3,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,98</t>
+          <t>0,82; 3,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,49</t>
+          <t>0,99; 3,6</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1285,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,84</t>
+          <t>1,33; 6,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,57</t>
+          <t>3,75; 11,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 9,17</t>
+          <t>2,55; 9,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,68</t>
+          <t>3,11; 10,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,34 +1320,34 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,51</t>
+          <t>0,91; 3,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,2</t>
+          <t>2,62; 6,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,13</t>
+          <t>4,38; 9,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,41</t>
+          <t>0,8; 2,48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,16</t>
+          <t>0,98; 5,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,64</t>
+          <t>1,41; 4,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,98</t>
+          <t>0,34; 2,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,69</t>
+          <t>0,37; 3,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,33</t>
+          <t>2,67; 6,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,86</t>
+          <t>0,19; 1,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,5</t>
+          <t>1,0; 3,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,84</t>
+          <t>2,32; 5,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,06</t>
+          <t>0,86; 3,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,3</t>
+          <t>0,45; 2,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,84</t>
+          <t>0,65; 2,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,33</t>
+          <t>2,28; 5,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,06</t>
+          <t>0,94; 3,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,32</t>
+          <t>1,05; 3,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,46</t>
+          <t>0,64; 2,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 65,0</t>
+          <t>5,1; 60,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,57</t>
+          <t>1,11; 2,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,37</t>
+          <t>0,93; 2,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,23</t>
+          <t>0,81; 2,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 47,69</t>
+          <t>4,15; 49,74</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,2</t>
+          <t>0,54; 2,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,77</t>
+          <t>0,41; 1,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,0</t>
+          <t>0,35; 1,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,98</t>
+          <t>0,04; 0,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,31</t>
+          <t>1,18; 3,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,39</t>
+          <t>0,78; 2,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,63</t>
+          <t>0,3; 1,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,19</t>
+          <t>0,29; 1,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,4</t>
+          <t>1,04; 2,32</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,82</t>
+          <t>0,79; 1,87</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,43</t>
+          <t>0,44; 1,51</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,87</t>
+          <t>0,24; 0,9</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,0</t>
+          <t>1,16; 2,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,2</t>
+          <t>1,27; 2,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,48</t>
+          <t>0,69; 1,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,82</t>
+          <t>1,63; 2,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,18</t>
+          <t>1,26; 2,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,72</t>
+          <t>1,76; 2,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,44</t>
+          <t>0,77; 1,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 24,52</t>
+          <t>2,79; 25,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,92</t>
+          <t>1,3; 1,92</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,33</t>
+          <t>1,61; 2,32</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,31</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,43; 14,47</t>
+          <t>2,46; 15,39</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3491</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10441</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2177</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3307</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10453</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5754</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4981</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6799</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20895</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7931</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7536</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>906; 10595</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4689; 18907</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7739</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9822</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1050; 9181</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4949; 18926</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2065; 11539</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2344; 9117</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2752; 14621</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12782; 32694</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3194; 14664</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3978; 15265</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11727</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25608</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8239</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10159</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2153</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29456</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19966</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17369</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>55064</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5996; 21251</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3021; 16513</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6710</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17073; 38312</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4066; 15742</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5010; 17565</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7500</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21798; 38521</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12102; 30333</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10386; 28844</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1013; 9622</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43091; 69497</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6170</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7370</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4846</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10080</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3393</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12216</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5579</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2043; 14441</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7881</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3497; 14091</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4403</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>982; 9824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5456</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2276; 9189</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6934</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4954; 18716</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>897; 9034</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7283; 18586</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8823</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7675</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4789</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12522</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8708</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7372</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13612</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15919</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12454</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15047</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4436; 16254</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1085; 9895</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>898; 11475</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2878; 17369</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1843; 10787</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6730; 22394</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3376; 16444</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3171; 17252</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7259; 21808</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9191; 26221</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6192; 23008</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7807; 28399</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6159</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15050</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1746</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1177</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10566</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12497</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5252</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16725</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27548</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1746</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6429</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2709; 12793</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7969; 25295</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5530</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4567</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5289; 19072</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6831; 22686</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2351; 9444</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10751; 26236</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18945; 41494</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5879</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3489; 10847</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6671</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7402</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10747</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4120</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10479</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18149</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5072</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5416</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2591; 14206</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3794; 12753</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4787</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>943; 8211</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1008; 8967</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6858; 16624</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7057</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1040; 9425</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5356; 18344</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>12196; 27010</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10261</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9494</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21750</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>11224</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13383</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>8954</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>240185</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>21485</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20406</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>18448</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>261934</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5280; 19322</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2989; 14305</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4298; 18704</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14248; 34415</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6012; 20274</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7287; 22460</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4406; 16425</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>43349; 510427</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>13874; 33668</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12629; 32401</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10958; 29707</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>61164; 732909</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>8129</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7343</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>16014</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>11911</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6541</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>24142</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>19254</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>13583</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>7833</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>4001; 15277</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3189; 14767</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2699; 14734</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>382; 8669</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>9248; 25868</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>6459; 20394</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2503; 13637</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2096; 8923</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>15908; 35448</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>12734; 29934</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>7078; 24273</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3967; 14892</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>50714</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>57692</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>34452</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>76755</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>56019</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>77898</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>37722</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>307454</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>106733</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>135590</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>72174</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>384209</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>38003; 66259</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>43387; 75044</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>23416; 50009</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>56418; 95588</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>42733; 73473</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>62677; 98308</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>27272; 52016</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>103513; 941132</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>86200; 127504</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>112471; 161895</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>54633; 90956</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>176341; 1103892</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>